--- a/biology/Zoologie/Agama_(genre)/Agama_(genre).xlsx
+++ b/biology/Zoologie/Agama_(genre)/Agama_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agama est un genre de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agama est un genre de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 47 espèces de ce genre se rencontrent en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 47 espèces de ce genre se rencontrent en Afrique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles terrestres et diurnes.
 Ils se nourrissent essentiellement d'insectes et de fruits. Comme les caméléons, ils peuvent changer de couleur et passer du vert foncé au rouge brique. Il utilise sa poche jugulaire gonflable lors des parades nuptiales ou pour impressionner ses ennemis. 
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 juillet 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 juillet 2021) :
 Agama aculeata Merrem, 1820
 Agama africana (Hallowell, 1844)
 Agama agama (Linnaeus, 1758)
@@ -624,7 +642,7 @@
 Agama sylvana Macdonald, 1981
 Agama tassiliensis Geniez, Padial &amp; Crochet, 2011
 Agama turuensis Loveridge, 1932
-Agama wachirai Malonza et al., 2021[3]
+Agama wachirai Malonza et al., 2021
 Agama weidholzi Wettstein, 1932</t>
         </is>
       </c>
@@ -653,9 +671,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Oreodeira a été synonymisé avec Agama par Moody en 1988[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Oreodeira a été synonymisé avec Agama par Moody en 1988
 </t>
         </is>
       </c>
@@ -684,7 +704,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Daudin, 1802 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suit à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigee par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 3, F. Dufart, Paris, p. 1-452 (texte intégral).
 Girard, 1858 "1857" : Descriptions of some new Reptiles, collected by the US. Exploring Expedition under the command of Capt. Charles Wilkes, U.S.N. Fourth Part. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 9, p. 195-199 (texte intégral).</t>
